--- a/src/test/resources/testdata/BluestrataTestDataOLD.xlsx
+++ b/src/test/resources/testdata/BluestrataTestDataOLD.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="20280" windowHeight="6825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
     <sheet name="clinicalPortal" sheetId="2" r:id="rId2"/>
     <sheet name="facilityPortal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="BD7:BR14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1197,7 +1198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1207,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU72"/>
   <sheetViews>
-    <sheetView topLeftCell="BD7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BD7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BW15" sqref="BW15"/>
     </sheetView>
   </sheetViews>
@@ -6905,7 +6906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
